--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf22-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf22-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,10 +79,10 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Fgf22</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,10 +543,10 @@
         <v>0.32843</v>
       </c>
       <c r="I2">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J2">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6105093333333333</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N2">
-        <v>1.831528</v>
+        <v>2.446501</v>
       </c>
       <c r="O2">
-        <v>0.1519928013857481</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P2">
-        <v>0.1519928013857482</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q2">
-        <v>0.06683652678222222</v>
+        <v>0.08927825815888889</v>
       </c>
       <c r="R2">
-        <v>0.60152874104</v>
+        <v>0.80350432343</v>
       </c>
       <c r="S2">
-        <v>0.08142635311091996</v>
+        <v>0.07781885320444552</v>
       </c>
       <c r="T2">
-        <v>0.08142635311091997</v>
+        <v>0.07781885320444552</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.32843</v>
       </c>
       <c r="I3">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J3">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>9.999403000000001</v>
       </c>
       <c r="O3">
-        <v>0.8298192952305694</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P3">
-        <v>0.8298192952305695</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q3">
         <v>0.3649004363655556</v>
@@ -635,10 +635,10 @@
         <v>3.28410392729</v>
       </c>
       <c r="S3">
-        <v>0.4445549942869519</v>
+        <v>0.3180632561315496</v>
       </c>
       <c r="T3">
-        <v>0.444554994286952</v>
+        <v>0.3180632561315496</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,10 +667,10 @@
         <v>0.32843</v>
       </c>
       <c r="I4">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="J4">
-        <v>0.535725063085488</v>
+        <v>0.4072979538991744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07255766666666667</v>
+        <v>0.119632</v>
       </c>
       <c r="N4">
-        <v>0.217673</v>
+        <v>0.358896</v>
       </c>
       <c r="O4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P4">
-        <v>0.01806400396610915</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q4">
-        <v>0.007943371487777778</v>
+        <v>0.01309691258666667</v>
       </c>
       <c r="R4">
-        <v>0.07149034339</v>
+        <v>0.11787221328</v>
       </c>
       <c r="S4">
-        <v>0.009677339664320328</v>
+        <v>0.01141584456317928</v>
       </c>
       <c r="T4">
-        <v>0.009677339664320331</v>
+        <v>0.01141584456317928</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1094766666666667</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H5">
-        <v>0.32843</v>
+        <v>0.28529</v>
       </c>
       <c r="I5">
-        <v>0.535725063085488</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J5">
-        <v>0.535725063085488</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0004976666666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N5">
-        <v>0.001493</v>
+        <v>2.446501</v>
       </c>
       <c r="O5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P5">
-        <v>0.0001238994175731531</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q5">
-        <v>5.448288777777778E-05</v>
+        <v>0.07755136336555556</v>
       </c>
       <c r="R5">
-        <v>0.0004903459899999999</v>
+        <v>0.69796227029</v>
       </c>
       <c r="S5">
-        <v>6.637602329563268E-05</v>
+        <v>0.06759717635628981</v>
       </c>
       <c r="T5">
-        <v>6.637602329563268E-05</v>
+        <v>0.06759717635628981</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,16 +785,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H6">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I6">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J6">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6105093333333333</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N6">
-        <v>1.831528</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O6">
-        <v>0.1519928013857481</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P6">
-        <v>0.1519928013857482</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q6">
-        <v>0.01412006336444445</v>
+        <v>0.3169699646522222</v>
       </c>
       <c r="R6">
-        <v>0.12708057028</v>
+        <v>2.85272968187</v>
       </c>
       <c r="S6">
-        <v>0.01720234908687142</v>
+        <v>0.2762849506493615</v>
       </c>
       <c r="T6">
-        <v>0.01720234908687143</v>
+        <v>0.2762849506493615</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.02312833333333333</v>
+        <v>0.09509666666666666</v>
       </c>
       <c r="H7">
-        <v>0.069385</v>
+        <v>0.28529</v>
       </c>
       <c r="I7">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="J7">
-        <v>0.1131787093206667</v>
+        <v>0.3537984753764744</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.333134333333334</v>
+        <v>0.119632</v>
       </c>
       <c r="N7">
-        <v>9.999403000000001</v>
+        <v>0.358896</v>
       </c>
       <c r="O7">
-        <v>0.8298192952305694</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P7">
-        <v>0.8298192952305695</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q7">
-        <v>0.07708984190611112</v>
+        <v>0.01137660442666667</v>
       </c>
       <c r="R7">
-        <v>0.6938085771550001</v>
+        <v>0.10238943984</v>
       </c>
       <c r="S7">
-        <v>0.09391787680358116</v>
+        <v>0.00991634837082306</v>
       </c>
       <c r="T7">
-        <v>0.09391787680358117</v>
+        <v>0.009916348370823062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,25 +900,25 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.02312833333333333</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H8">
-        <v>0.069385</v>
+        <v>0.192643</v>
       </c>
       <c r="I8">
-        <v>0.1131787093206667</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J8">
-        <v>0.1131787093206667</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.07255766666666667</v>
+        <v>0.8155003333333334</v>
       </c>
       <c r="N8">
-        <v>0.217673</v>
+        <v>2.446501</v>
       </c>
       <c r="O8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590028</v>
       </c>
       <c r="P8">
-        <v>0.01806400396610915</v>
+        <v>0.1910612426590029</v>
       </c>
       <c r="Q8">
-        <v>0.001678137900555556</v>
+        <v>0.05236681023811111</v>
       </c>
       <c r="R8">
-        <v>0.015103241105</v>
+        <v>0.471301292143</v>
       </c>
       <c r="S8">
-        <v>0.002044460654047639</v>
+        <v>0.04564521309826751</v>
       </c>
       <c r="T8">
-        <v>0.002044460654047639</v>
+        <v>0.04564521309826752</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,55 +962,55 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.02312833333333333</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H9">
-        <v>0.069385</v>
+        <v>0.192643</v>
       </c>
       <c r="I9">
-        <v>0.1131787093206667</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J9">
-        <v>0.1131787093206667</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0004976666666666667</v>
+        <v>3.333134333333334</v>
       </c>
       <c r="N9">
-        <v>0.001493</v>
+        <v>9.999403000000001</v>
       </c>
       <c r="O9">
-        <v>0.0001238994175731531</v>
+        <v>0.7809105179307759</v>
       </c>
       <c r="P9">
-        <v>0.0001238994175731531</v>
+        <v>0.780910517930776</v>
       </c>
       <c r="Q9">
-        <v>1.151020055555556E-05</v>
+        <v>0.2140349991254445</v>
       </c>
       <c r="R9">
-        <v>0.000103591805</v>
+        <v>1.926314992129</v>
       </c>
       <c r="S9">
-        <v>1.402277616651181E-05</v>
+        <v>0.1865623111498649</v>
       </c>
       <c r="T9">
-        <v>1.402277616651181E-05</v>
+        <v>0.1865623111498649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,25 +1024,25 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.07174733333333334</v>
+        <v>0.06421433333333333</v>
       </c>
       <c r="H10">
-        <v>0.215242</v>
+        <v>0.192643</v>
       </c>
       <c r="I10">
-        <v>0.3510962275938453</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="J10">
-        <v>0.3510962275938452</v>
+        <v>0.2389035707243512</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6105093333333333</v>
+        <v>0.119632</v>
       </c>
       <c r="N10">
-        <v>1.831528</v>
+        <v>0.358896</v>
       </c>
       <c r="O10">
-        <v>0.1519928013857481</v>
+        <v>0.02802823941022116</v>
       </c>
       <c r="P10">
-        <v>0.1519928013857482</v>
+        <v>0.02802823941022117</v>
       </c>
       <c r="Q10">
-        <v>0.04380241664177779</v>
+        <v>0.007682089125333334</v>
       </c>
       <c r="R10">
-        <v>0.3942217497760001</v>
+        <v>0.069138802128</v>
       </c>
       <c r="S10">
-        <v>0.05336409918795675</v>
+        <v>0.006696046476218819</v>
       </c>
       <c r="T10">
-        <v>0.05336409918795675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.07174733333333334</v>
-      </c>
-      <c r="H11">
-        <v>0.215242</v>
-      </c>
-      <c r="I11">
-        <v>0.3510962275938453</v>
-      </c>
-      <c r="J11">
-        <v>0.3510962275938452</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.333134333333334</v>
-      </c>
-      <c r="N11">
-        <v>9.999403000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.8298192952305694</v>
-      </c>
-      <c r="P11">
-        <v>0.8298192952305695</v>
-      </c>
-      <c r="Q11">
-        <v>0.2391435000584445</v>
-      </c>
-      <c r="R11">
-        <v>2.152291500526</v>
-      </c>
-      <c r="S11">
-        <v>0.2913464241400363</v>
-      </c>
-      <c r="T11">
-        <v>0.2913464241400363</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.07174733333333334</v>
-      </c>
-      <c r="H12">
-        <v>0.215242</v>
-      </c>
-      <c r="I12">
-        <v>0.3510962275938453</v>
-      </c>
-      <c r="J12">
-        <v>0.3510962275938452</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.07255766666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.217673</v>
-      </c>
-      <c r="O12">
-        <v>0.01806400396610915</v>
-      </c>
-      <c r="P12">
-        <v>0.01806400396610915</v>
-      </c>
-      <c r="Q12">
-        <v>0.005205819096222223</v>
-      </c>
-      <c r="R12">
-        <v>0.046852371866</v>
-      </c>
-      <c r="S12">
-        <v>0.006342203647741182</v>
-      </c>
-      <c r="T12">
-        <v>0.006342203647741182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.07174733333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.215242</v>
-      </c>
-      <c r="I13">
-        <v>0.3510962275938453</v>
-      </c>
-      <c r="J13">
-        <v>0.3510962275938452</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.0004976666666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.001493</v>
-      </c>
-      <c r="O13">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="P13">
-        <v>0.0001238994175731531</v>
-      </c>
-      <c r="Q13">
-        <v>3.570625622222222E-05</v>
-      </c>
-      <c r="R13">
-        <v>0.000321356306</v>
-      </c>
-      <c r="S13">
-        <v>4.350061811100865E-05</v>
-      </c>
-      <c r="T13">
-        <v>4.350061811100864E-05</v>
+        <v>0.00669604647621882</v>
       </c>
     </row>
   </sheetData>
